--- a/biology/Zoologie/Hydrophis_hardwickii/Hydrophis_hardwickii.xlsx
+++ b/biology/Zoologie/Hydrophis_hardwickii/Hydrophis_hardwickii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis hardwickii est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis hardwickii est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce marine se rencontre dans l'est de l'océan Indien et l'Ouest du océan Pacifique dans les eaux de l'Inde, du Sri Lanka, de la Birmanie, de la Thaïlande, de la Malaisie, du Viêt Nam, de la Chine, de Taïwan, du Japon, des Philippines, de l'Indonésie, de la Papouasie-Nouvelle-Guinée et du nord de l'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce marine se rencontre dans l'est de l'océan Indien et l'Ouest du océan Pacifique dans les eaux de l'Inde, du Sri Lanka, de la Birmanie, de la Thaïlande, de la Malaisie, du Viêt Nam, de la Chine, de Taïwan, du Japon, des Philippines, de l'Indonésie, de la Papouasie-Nouvelle-Guinée et du nord de l'Australie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un serpent marin venimeux et vivipare.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Thomas Hardwicke[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Thomas Hardwicke.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1834 : Illustrations of Indian Zoology, chiefly selected from the collection of Major-General Hardwicke. vol. 2, p. 1-263 (texte intégral).</t>
         </is>
